--- a/Testing_data.xlsx
+++ b/Testing_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PraveenSomisetti\Downloads\email_at\Email_automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PraveenSomisetti\Downloads\POC\Email_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7EF881-7963-46CA-8FC5-1922A0133B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8437D11-2148-4D66-8031-E7065A73F2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>Relation with parent company</t>
   </si>
   <si>
-    <t>prvnsmstt@gmail.com</t>
-  </si>
-  <si>
     <t>Hosted the International Chemical Engineering Summit 2024 in Frankfurt, attracting 2,000+ industry professionals to discuss advancements in chemical processing, sustainability, and innovation</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>Purpose of email campaign</t>
+  </si>
+  <si>
+    <t>praveen.somisetti@ngenux.com</t>
   </si>
 </sst>
 </file>
@@ -242,19 +242,19 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -539,13 +539,43 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="525" row="5">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{75DC8577-2F9A-4E36-9FFA-4A6F3374826A}">
+  <we:reference id="wa200006518" version="1.1.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200006518" version="1.1.0.0" store="WA200006518" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_TOOLBOX_NUMCONNECTIONS</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{0858819E-0033-43BF-8937-05EC82904868}">
+      <we:backgroundApp state="0" runtimeId="PyScript.Url"/>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -555,7 +585,7 @@
     <col min="4" max="4" width="23.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.453125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.54296875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="31.08984375" style="4" customWidth="1"/>
     <col min="8" max="8" width="14.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.1796875" style="4" bestFit="1" customWidth="1"/>
@@ -595,7 +625,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
@@ -630,7 +660,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>17</v>
@@ -674,7 +704,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>32</v>
@@ -689,7 +719,7 @@
         <v>19</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>33</v>
@@ -718,7 +748,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>17</v>
@@ -747,22 +777,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
@@ -774,13 +804,13 @@
         <v>18</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>22</v>
@@ -803,22 +833,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>32</v>
@@ -827,16 +857,16 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>22</v>
@@ -855,6 +885,10 @@
       <c r="Z6" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{83FF0394-86A0-485B-AB1B-62ECCD7CF4A6}"/>
+    <hyperlink ref="G3:G6" r:id="rId2" display="praveen.somisetti@ngenux.com" xr:uid="{5C64C8E7-CEEA-4582-929E-BAF4AD34FD14}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>